--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.9651055715856222</v>
+        <v>-0.8535490096435424</v>
       </c>
       <c r="D2">
-        <v>0.3346309198758846</v>
+        <v>0.4025531552197719</v>
       </c>
       <c r="E2">
         <v>0.6051158800872627</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.5247964708438903</v>
+        <v>0.5360848910806454</v>
       </c>
       <c r="D3">
-        <v>0.5997939678481132</v>
+        <v>0.597279060083264</v>
       </c>
       <c r="E3">
         <v>0.6051158800872627</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7567709313159992</v>
+        <v>0.8068510759394214</v>
       </c>
       <c r="D4">
-        <v>0.4492932871878152</v>
+        <v>0.4283893044475657</v>
       </c>
       <c r="E4">
         <v>0.6051158800872627</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.4373753260343326</v>
+        <v>-0.4917055596603445</v>
       </c>
       <c r="D5">
-        <v>0.6618954257017748</v>
+        <v>0.6277977401004358</v>
       </c>
       <c r="E5">
         <v>0.6051158800872627</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.51407232814348</v>
+        <v>1.125000682153368</v>
       </c>
       <c r="D6">
-        <v>0.1301957090459527</v>
+        <v>0.2727133104829305</v>
       </c>
       <c r="E6">
         <v>0.6287594318631585</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.76588666053769</v>
+        <v>1.810089144151952</v>
       </c>
       <c r="D7">
-        <v>0.07759657811201226</v>
+        <v>0.08396434230191518</v>
       </c>
       <c r="E7">
         <v>0.6287594318631585</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.6047159452038983</v>
+        <v>0.5640763809977275</v>
       </c>
       <c r="D8">
-        <v>0.5454494623121762</v>
+        <v>0.5784079213336262</v>
       </c>
       <c r="E8">
         <v>0.6287594318631585</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.282863438628349</v>
+        <v>0.2613969139565138</v>
       </c>
       <c r="D9">
-        <v>0.7773163900988451</v>
+        <v>0.7962180175058882</v>
       </c>
       <c r="E9">
         <v>0.593389239712831</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.089176591273178</v>
+        <v>-0.8250441433187218</v>
       </c>
       <c r="D10">
-        <v>0.2762323227661014</v>
+        <v>0.4182031294397579</v>
       </c>
       <c r="E10">
         <v>0.593389239712831</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.304188685218167</v>
+        <v>-1.119628605206326</v>
       </c>
       <c r="D11">
-        <v>0.1923480142745539</v>
+        <v>0.2749473258760742</v>
       </c>
       <c r="E11">
         <v>0.5877694669937914</v>
